--- a/xlsx-data/test-data-01.xlsx
+++ b/xlsx-data/test-data-01.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_\_src\dev\node-web-server\node-read-xlsx\xlsx-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CB50CA-6D40-4E18-B83F-476736C77705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79220046-D842-4F96-AD31-E083CFA3BE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="3900" windowWidth="43200" windowHeight="23445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="test-sheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>aaa</t>
     <phoneticPr fontId="1"/>
@@ -40,6 +41,10 @@
   </si>
   <si>
     <t>ddd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xx</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -367,9 +372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
@@ -394,4 +397,26 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C56607-016B-4B38-A4DD-951C7F2E849B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>